--- a/TF/codes/results/plot/finals/TrapDetrapGas_zoom.xlsx
+++ b/TF/codes/results/plot/finals/TrapDetrapGas_zoom.xlsx
@@ -29,9 +29,6 @@
     <t>index</t>
   </si>
   <si>
-    <t>60s</t>
-  </si>
-  <si>
     <t>10min</t>
   </si>
   <si>
@@ -42,6 +39,9 @@
   </si>
   <si>
     <t>2h</t>
+  </si>
+  <si>
+    <t>1min</t>
   </si>
 </sst>
 </file>
@@ -402,7 +402,7 @@
   <dimension ref="A1:MM6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -861,7 +861,7 @@
     </row>
     <row r="2" spans="1:351" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B2" s="4">
         <v>1.2178228778998562E+26</v>
@@ -1248,7 +1248,7 @@
     </row>
     <row r="3" spans="1:351" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="5">
         <v>1.1855576252918646E+27</v>
@@ -1635,7 +1635,7 @@
     </row>
     <row r="4" spans="1:351" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="6">
         <v>3.3535690360893244E+27</v>
@@ -2022,7 +2022,7 @@
     </row>
     <row r="5" spans="1:351" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="7">
         <v>6.1547053538459499E+27</v>
@@ -2409,7 +2409,7 @@
     </row>
     <row r="6" spans="1:351" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="8">
         <v>1.0448697573166897E+28</v>
